--- a/ЗАВОДЫ/НОРД/2025/05,25/12,05,25 НОРД/заказ НОРД от 12,05,25 на 15,05,25.xlsx
+++ b/ЗАВОДЫ/НОРД/2025/05,25/12,05,25 НОРД/заказ НОРД от 12,05,25 на 15,05,25.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\12,05,25 НОРД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\НОРД\2025\05,25\12,05,25 НОРД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B30EC-10D0-45AE-A6CA-69B64C7D6901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE398AF-5A16-48CD-A0A4-9D3C254B0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -426,7 +420,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
